--- a/branched-linear plusminus data/plusminus_data_builder_v1.xlsx
+++ b/branched-linear plusminus data/plusminus_data_builder_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\phosphine-ligands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwb1j\OneDrive\Documents\GitHub\phosphine-ligands\branched-linear plusminus data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE16ECD-B7B9-4F8C-B99D-76CF787537CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4850F9-9B66-4400-8D66-62AD0BB398A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25974" yWindow="-68" windowWidth="26301" windowHeight="14889" xr2:uid="{B25C7A4C-7FB3-4697-B2F1-5A343142EB26}"/>
   </bookViews>
@@ -1477,8 +1477,8 @@
   <dimension ref="A1:AK48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AK1" sqref="AK1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
